--- a/Excel/特效表.xlsx
+++ b/Excel/特效表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>int</t>
   </si>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>Effect2</t>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -384,88 +408,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
